--- a/biology/Botanique/Bolet_des_peupliers/Bolet_des_peupliers.xlsx
+++ b/biology/Botanique/Bolet_des_peupliers/Bolet_des_peupliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rude des trembles, Bolet des peupliers
 Leccinum duriusculum, le Bolet rude des trembles ou Bolet des peupliers, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il est caractérisé par sa stature souvent plus trapue par rapport à d'autres bolets rudes, son habitat sous peupliers tremble et la base de son pied souvent tachée de bleu.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum duriusculum (Schulzer ex Kalchbr.) Singer[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus duriusculus Schulzer ex Kalchbr[1].
-Synonymes
-Leccinum duriusculum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum duriusculum (Schulzer ex Kalchbr.) Singer.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus duriusculus Schulzer ex Kalchbr.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leccinum duriusculum a pour synonymes :
 Boletus duriusculus
 Gyroporus rufus var. duriusculus
 Gyroporus duriusculus
@@ -537,45 +586,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_des_peupliers</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_des_peupliers</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum duriusculum, le Bolet rude des trembles, sont les suivantes :
-Son chapeau mesurant 7 à 15 cm est de forme hémisphérique puis convexe pulviné. Sa surface est lisse ou finement verruqueuse, mate, visqueuse par temps humide. Sa marge est obtuse, légèrement débordante. Il est de couleur gris-brun, brun grisâtre, café au lait, roussâtre à brun rougeâtre[2],[3].
-L'hyménophore présente des pores fins, blancs puis grisâtres à grisâtres-rosâtres, brunissants au toucher. Les tubes sont longs de 15 à 30 mm, concolores, largement adnés[2],[3].
-Son stipe mesure 7 à 16 cm x 2 à 5-5 cm, de forme cylindrique à ventru à base amincie, plein puis farci avec l'âge. Il est orné de squames grisâtres sur fond blanchâtre à ocre sale. La base est souvent tachée de bleuâtre[2]. En effet, le pied de L. duriusculum est souvent plus trapu que ceux des autres Bolets rudes (Leccinum), particulièrement chez sa forme robustum qui pousse cette particularité à l'extrême.
-La chair est blanchâtre, épaisse, rose à la coupe puis finalement gris noirâtre. Elle est souvent tachée de bleuâtre à la base du stipe. Sa saveur est douce et son odeur est faible. La sporée est jaune brunâtre[2],[3].
-Réactions chimiques
-Sa chair devient rouge intense au formol[2].
-Caractéristiques microscopiques
-Les spores sont elliptiques, lisses, guttulées, jaune pâle aux dimensions variables selon les récoltes et les auteurs : 9,2-12,6 x 3,4-5,8 (Breitenbach) ; 13-17 x 5-6 (Moser) ; 16-20 x 5-7 (Bon). Basides clavées, tétrasporiques, non bouclées. Cheilo et pleurocystides fusiformes ventrues à sommet légèrement incrusté. Cuticule trichodermique à hyphes non bouclées enchevêtrées à extrémités dressées, larges de 6-12 µm, incrustées de brun au sommet[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -597,16 +607,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste des formes et variétés</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Selon MycoBank                                            (5 février 2023)[4] :
-Leccinum duriusculum f. robustum Lannoy &amp; Estadès, 1994. Cette forme a la particularité de pousser uniquement sous les peupliers blancs (Populus alba). Elle se reconnait à son stipe massif, à fines écailles pratiquement blanches en haut et de plus en plus grises vers le bas, très denses, et pratiquement noires près de la partie enterrée[5].
-Leccinum duriusculum f. tenerum Estadès &amp; Bidaud, 2007
-Leccinum duriusculum var. salicinum Wichanský, 1960</t>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum duriusculum, le Bolet rude des trembles, sont les suivantes :
+Son chapeau mesurant 7 à 15 cm est de forme hémisphérique puis convexe pulviné. Sa surface est lisse ou finement verruqueuse, mate, visqueuse par temps humide. Sa marge est obtuse, légèrement débordante. Il est de couleur gris-brun, brun grisâtre, café au lait, roussâtre à brun rougeâtre,.
+L'hyménophore présente des pores fins, blancs puis grisâtres à grisâtres-rosâtres, brunissants au toucher. Les tubes sont longs de 15 à 30 mm, concolores, largement adnés,.
+Son stipe mesure 7 à 16 cm x 2 à 5-5 cm, de forme cylindrique à ventru à base amincie, plein puis farci avec l'âge. Il est orné de squames grisâtres sur fond blanchâtre à ocre sale. La base est souvent tachée de bleuâtre. En effet, le pied de L. duriusculum est souvent plus trapu que ceux des autres Bolets rudes (Leccinum), particulièrement chez sa forme robustum qui pousse cette particularité à l'extrême.
+La chair est blanchâtre, épaisse, rose à la coupe puis finalement gris noirâtre. Elle est souvent tachée de bleuâtre à la base du stipe. Sa saveur est douce et son odeur est faible. La sporée est jaune brunâtre,.
+</t>
         </is>
       </c>
     </row>
@@ -631,10 +644,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa chair devient rouge intense au formol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spores sont elliptiques, lisses, guttulées, jaune pâle aux dimensions variables selon les récoltes et les auteurs : 9,2-12,6 x 3,4-5,8 (Breitenbach) ; 13-17 x 5-6 (Moser) ; 16-20 x 5-7 (Bon). Basides clavées, tétrasporiques, non bouclées. Cheilo et pleurocystides fusiformes ventrues à sommet légèrement incrusté. Cuticule trichodermique à hyphes non bouclées enchevêtrées à extrémités dressées, larges de 6-12 µm, incrustées de brun au sommet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des formes et variétés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Selon MycoBank                                            (5 février 2023) :
+Leccinum duriusculum f. robustum Lannoy &amp; Estadès, 1994. Cette forme a la particularité de pousser uniquement sous les peupliers blancs (Populus alba). Elle se reconnait à son stipe massif, à fines écailles pratiquement blanches en haut et de plus en plus grises vers le bas, très denses, et pratiquement noires près de la partie enterrée.
+Leccinum duriusculum f. tenerum Estadès &amp; Bidaud, 2007
+Leccinum duriusculum var. salicinum Wichanský, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_des_peupliers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bolet rude des trembles est un champignon mycorhizien. On le rencontre sous les peupliers (Populus), surtout sous peuplier tremble (Populus tremula) et peuplier blanc (Populus alba).
 </t>
